--- a/biology/Zoologie/Cercopithecus_mitis/Cercopithecus_mitis.xlsx
+++ b/biology/Zoologie/Cercopithecus_mitis/Cercopithecus_mitis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercopithèque à diadème, Singe bleu, Singe argenté
 Cercopithecus mitis est une espèce de singes vivant entre autres dans l'altitude basse et moyenne du Mont Kenya, au Kenya. Il est appelé Singe bleu, Singe argenté,  ou encore Singe de Stuhlmann, ou Cercopithèque à diadème, bien que ce nom soit aussi donné à l'espèce Cercopithecus albogularis.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (6 octobre 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (6 octobre 2014) :
 sous-espèce Cercopithecus mitis boutourlinii
 sous-espèce Cercopithecus mitis elgonis
 sous-espèce Cercopithecus mitis heymansi
